--- a/stas.dev_ballistixcrm/src/test/resources/TestData.xlsx
+++ b/stas.dev_ballistixcrm/src/test/resources/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,36 @@
   </si>
   <si>
     <t>Ven334</t>
+  </si>
+  <si>
+    <t>HP729</t>
+  </si>
+  <si>
+    <t>Org778</t>
+  </si>
+  <si>
+    <t>Org379</t>
+  </si>
+  <si>
+    <t>cont42</t>
+  </si>
+  <si>
+    <t>Last543</t>
+  </si>
+  <si>
+    <t>HP128</t>
+  </si>
+  <si>
+    <t>Product453</t>
+  </si>
+  <si>
+    <t>Ven198</t>
+  </si>
+  <si>
+    <t>HP233</t>
+  </si>
+  <si>
+    <t>Ven855</t>
   </si>
 </sst>
 </file>
@@ -544,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -669,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
